--- a/Risks.xlsx
+++ b/Risks.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17927"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paulg\Documents\GitHub\WaterMe\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Uni\Software-Engineering\WaterMe\WaterMe\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21333" windowHeight="8260"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21336" windowHeight="8256"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>chosing wrong software tools</t>
   </si>
@@ -59,9 +59,6 @@
     <t>all</t>
   </si>
   <si>
-    <t>Illness of team member (&gt; 1 weeks)</t>
-  </si>
-  <si>
     <t>eat apples</t>
   </si>
   <si>
@@ -77,9 +74,6 @@
     <t>3-7</t>
   </si>
   <si>
-    <t>240-560</t>
-  </si>
-  <si>
     <t>Hardware breaks (e. g. Raspberry, sensor)</t>
   </si>
   <si>
@@ -89,10 +83,31 @@
     <t>1-10</t>
   </si>
   <si>
-    <t>40-400</t>
-  </si>
-  <si>
     <t>read documention/ask for help</t>
+  </si>
+  <si>
+    <t>Illness of team member (&gt; 1 week)</t>
+  </si>
+  <si>
+    <t>Paul &amp; Chris</t>
+  </si>
+  <si>
+    <t>Olga</t>
+  </si>
+  <si>
+    <t>Chris</t>
+  </si>
+  <si>
+    <t>prob * damage</t>
+  </si>
+  <si>
+    <t>Paul</t>
+  </si>
+  <si>
+    <t>2,4-5,6</t>
+  </si>
+  <si>
+    <t>0,4-4</t>
   </si>
 </sst>
 </file>
@@ -157,18 +172,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -484,159 +507,165 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.8203125" customWidth="1"/>
-    <col min="2" max="2" width="26.05859375" customWidth="1"/>
-    <col min="3" max="3" width="18.1171875" customWidth="1"/>
-    <col min="4" max="4" width="37.41015625" customWidth="1"/>
-    <col min="5" max="5" width="17.46875" customWidth="1"/>
+    <col min="1" max="1" width="35.77734375" customWidth="1"/>
+    <col min="2" max="2" width="26.109375" customWidth="1"/>
+    <col min="3" max="3" width="18.109375" customWidth="1"/>
+    <col min="4" max="4" width="37.44140625" customWidth="1"/>
+    <col min="5" max="5" width="17.44140625" customWidth="1"/>
+    <col min="6" max="6" width="15.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="16.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:6" ht="16.649999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="6">
-        <v>0.8</v>
-      </c>
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="B3" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="C4" s="9">
+        <v>8</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F4" s="8">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="C5" s="9">
+        <v>7</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="8">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="C6" s="9">
+        <v>8</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="8">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="C7" s="9">
+        <v>7</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="6">
-        <v>0.4</v>
-      </c>
-      <c r="C3" s="5">
-        <v>10</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="3">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A4" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="6">
-        <v>0.4</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A5" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="6">
-        <v>0.3</v>
-      </c>
-      <c r="C5" s="5">
-        <v>7</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="3">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A6" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="C6" s="5">
-        <v>8</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="3">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A7" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="C7" s="5">
-        <v>7</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="3">
-        <v>35</v>
+      <c r="F7" s="8">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F8" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/Risks.xlsx
+++ b/Risks.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17927"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Uni\Software-Engineering\WaterMe\WaterMe\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paulg\Documents\GitHub\WaterMe\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21336" windowHeight="8256"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21333" windowHeight="8253"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -35,18 +35,6 @@
     <t>Identified</t>
   </si>
   <si>
-    <t>prob of occurance</t>
-  </si>
-  <si>
-    <t>damage</t>
-  </si>
-  <si>
-    <t>mitigation strategy</t>
-  </si>
-  <si>
-    <t>person in charge</t>
-  </si>
-  <si>
     <t>Risk factor</t>
   </si>
   <si>
@@ -108,6 +96,18 @@
   </si>
   <si>
     <t>0,4-4</t>
+  </si>
+  <si>
+    <t>Prob of occurance</t>
+  </si>
+  <si>
+    <t>Damage</t>
+  </si>
+  <si>
+    <t>Mitigation strategy</t>
+  </si>
+  <si>
+    <t>Person in charge</t>
   </si>
 </sst>
 </file>
@@ -510,82 +510,82 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="F7" sqref="A1:F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="35.77734375" customWidth="1"/>
-    <col min="2" max="2" width="26.109375" customWidth="1"/>
-    <col min="3" max="3" width="18.109375" customWidth="1"/>
-    <col min="4" max="4" width="37.44140625" customWidth="1"/>
-    <col min="5" max="5" width="17.44140625" customWidth="1"/>
-    <col min="6" max="6" width="15.21875" customWidth="1"/>
+    <col min="1" max="1" width="35.76171875" customWidth="1"/>
+    <col min="2" max="2" width="17.05859375" customWidth="1"/>
+    <col min="3" max="3" width="9.76171875" customWidth="1"/>
+    <col min="4" max="4" width="37.41015625" customWidth="1"/>
+    <col min="5" max="5" width="17.41015625" customWidth="1"/>
+    <col min="6" max="6" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="16.649999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:6" ht="16.7" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A2" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B2" s="4">
         <v>0.8</v>
       </c>
       <c r="C2" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>19</v>
-      </c>
       <c r="E2" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A3" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B3" s="4">
         <v>0.4</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A4" s="3" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B4" s="4">
         <v>0.4</v>
@@ -594,16 +594,16 @@
         <v>8</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F4" s="8">
         <v>3.2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A5" s="3" t="s">
         <v>1</v>
       </c>
@@ -614,16 +614,16 @@
         <v>7</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F5" s="8">
         <v>2.1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A6" s="3" t="s">
         <v>0</v>
       </c>
@@ -634,18 +634,18 @@
         <v>8</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F6" s="8">
         <v>0.4</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A7" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B7" s="4">
         <v>0.05</v>
@@ -654,18 +654,18 @@
         <v>7</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F7" s="8">
         <v>0.35</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.5">
       <c r="F8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Risks.xlsx
+++ b/Risks.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18229"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paulg\Documents\GitHub\WaterMe\"/>
@@ -53,33 +53,21 @@
     <t>communicate</t>
   </si>
   <si>
-    <t>inform well about software features</t>
-  </si>
-  <si>
     <t>trouble implementing feature</t>
   </si>
   <si>
     <t>3-7</t>
   </si>
   <si>
-    <t>Hardware breaks (e. g. Raspberry, sensor)</t>
-  </si>
-  <si>
     <t>replacement Hardware</t>
   </si>
   <si>
     <t>1-10</t>
   </si>
   <si>
-    <t>read documention/ask for help</t>
-  </si>
-  <si>
     <t>Illness of team member (&gt; 1 week)</t>
   </si>
   <si>
-    <t>Paul &amp; Chris</t>
-  </si>
-  <si>
     <t>Olga</t>
   </si>
   <si>
@@ -98,16 +86,34 @@
     <t>0,4-4</t>
   </si>
   <si>
-    <t>Prob of occurance</t>
-  </si>
-  <si>
     <t>Damage</t>
   </si>
   <si>
     <t>Mitigation strategy</t>
   </si>
   <si>
-    <t>Person in charge</t>
+    <t>Prob of
+occurance</t>
+  </si>
+  <si>
+    <t>Person in
+charge</t>
+  </si>
+  <si>
+    <t>Paul &amp; 
+Chris</t>
+  </si>
+  <si>
+    <t>Hardware breaks 
+(e. g. Raspberry, sensor)</t>
+  </si>
+  <si>
+    <t>inform well about
+ software features</t>
+  </si>
+  <si>
+    <t>read documention/
+ask for help</t>
   </si>
 </sst>
 </file>
@@ -172,7 +178,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -192,6 +198,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -510,77 +528,77 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F7" sqref="A1:F7"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="35.76171875" customWidth="1"/>
-    <col min="2" max="2" width="17.05859375" customWidth="1"/>
-    <col min="3" max="3" width="9.76171875" customWidth="1"/>
-    <col min="4" max="4" width="37.41015625" customWidth="1"/>
-    <col min="5" max="5" width="17.41015625" customWidth="1"/>
+    <col min="1" max="1" width="29.17578125" customWidth="1"/>
+    <col min="2" max="2" width="9.5859375" customWidth="1"/>
+    <col min="3" max="3" width="7.64453125" customWidth="1"/>
+    <col min="4" max="4" width="20.5859375" customWidth="1"/>
+    <col min="5" max="5" width="9.17578125" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:6" ht="43" x14ac:dyDescent="0.5">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>24</v>
+      <c r="B1" s="10" t="s">
+        <v>22</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>23</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="16.7" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:6" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A2" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" s="4">
         <v>0.8</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>17</v>
+        <v>10</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>24</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A3" s="3" t="s">
-        <v>12</v>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="28.7" x14ac:dyDescent="0.5">
+      <c r="A3" s="12" t="s">
+        <v>25</v>
       </c>
       <c r="B3" s="4">
         <v>0.4</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="6" t="s">
         <v>19</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.5">
@@ -597,7 +615,7 @@
         <v>5</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F4" s="8">
         <v>3.2</v>
@@ -617,13 +635,13 @@
         <v>8</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F5" s="8">
         <v>2.1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:6" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A6" s="3" t="s">
         <v>0</v>
       </c>
@@ -633,11 +651,11 @@
       <c r="C6" s="9">
         <v>8</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>9</v>
+      <c r="D6" s="13" t="s">
+        <v>26</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F6" s="8">
         <v>0.4</v>
@@ -645,7 +663,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A7" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B7" s="4">
         <v>0.05</v>
@@ -665,7 +683,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.5">
       <c r="F8" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
